--- a/src/evolution/stackext/stack_cmd.xlsx
+++ b/src/evolution/stackext/stack_cmd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29712"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Github\ViktorasGolubevas\desktop-tutorial\src\evolution\stackext\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Github\ViktorasGolubevas\cpp2026-test\src\evolution\stackext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7DE153-5E64-4A82-B1CA-ECD63A21B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B05E6CA-477B-4C49-A4E1-95D3FADC18A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{857AF9C4-9B63-4985-BB72-770C63C2FF3F}"/>
+    <workbookView xWindow="24" yWindow="120" windowWidth="23016" windowHeight="11856" xr2:uid="{857AF9C4-9B63-4985-BB72-770C63C2FF3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9327A97-40AC-4BE6-9658-FB84D0A3DCA6}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,11 +919,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94BDBE9-7E10-46CC-A9FE-5D426465C7B8}">
   <dimension ref="B2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="str">
